--- a/Assets/StreamingAssets/config/角色.xlsx
+++ b/Assets/StreamingAssets/config/角色.xlsx
@@ -44,7 +44,7 @@
     <t>Chara_00</t>
   </si>
   <si>
-    <t>Chara_011111</t>
+    <t>Chara_01</t>
   </si>
   <si>
     <t>Chara_02</t>
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
